--- a/result/版本5结果记录与备注.xlsx
+++ b/result/版本5结果记录与备注.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
   <si>
     <t>数据</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>0m3s</t>
+  </si>
+  <si>
+    <t>3s</t>
   </si>
   <si>
     <t>自适应（1000包围盒）</t>
@@ -201,10 +204,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -674,142 +684,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1122,134 +1144,134 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
+    <col min="6" max="7" width="15.75" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="15" style="2" customWidth="1"/>
+    <col min="11" max="11" width="53.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>150089</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>62</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
@@ -1257,34 +1279,34 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L4" t="s">
@@ -1292,34 +1314,34 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L5" t="s">
@@ -1327,34 +1349,34 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L6" t="s">
@@ -1362,37 +1384,37 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>236</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L7" t="s">
@@ -1400,34 +1422,34 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L8" t="s">
@@ -1435,37 +1457,37 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>1806885</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>5908</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L10" t="s">
@@ -1473,37 +1495,37 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1806885</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L11" t="s">
@@ -1511,142 +1533,144 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1806885</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>2</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>150089</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="14" customFormat="1" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>150089</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L15" t="s">
@@ -1654,735 +1678,767 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1806885</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1806885</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>884</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="L19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>884</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
         <v>30000</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="2">
         <v>20</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="2">
         <v>414</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K23" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
         <v>10000</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="2">
         <v>27</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I24" s="2">
         <v>164</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="s">
         <v>51</v>
       </c>
-      <c r="L23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
         <v>20000</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="2">
         <v>26</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="2">
         <v>164</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="K25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
         <v>10000</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="L26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
         <v>20000</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
         <v>100</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="1">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
         <v>1000</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
         <v>1000</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="L30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
         <v>30000</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="L31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
         <v>100</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="L32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
         <v>500</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="L33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
         <v>1000</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="L34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
         <v>10000</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="L35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="2">
         <v>10000</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="L36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="1">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
         <v>100</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
         <v>1000</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
         <v>10000</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2">
+        <v>150089</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
         <v>20000</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40"/>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41"/>
@@ -2432,15 +2488,18 @@
     <row r="56" spans="2:2">
       <c r="B56"/>
     </row>
+    <row r="57" spans="2:2">
+      <c r="B57"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C20:C21 C40:C62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C21:C22 C41:C63">
       <formula1>"经纬度,墨卡托"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F3 G3 F4:G4 F5:G5 F6:G6 F7:G7 F8:G8 F9:G9 F10:G10 F11:G11 F12:G12 F13:G13 F14:G14 F15:G15 F16:G16 F17:G17 F26:G26 F27:G27 F28:G28 F29:G29 F30:G30 F31:G31 F32:G32 F33:G33 F34:G34 F35:G35 F36:G36 F37:G37 F38:G38 F39:G39 F18:G21 F22:G25 F40:G60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F3 G3 F4:G4 F5:G5 F6:G6 F7:G7 F8:G8 F9:G9 F10:G10 F11:G11 F12:G12 F13:G13 F14:G14 F15:G15 F16:G16 F17:G17 F18:G18 F27:G27 F28:G28 F29:G29 F30:G30 F31:G31 F32:G32 F33:G33 F34:G34 F35:G35 F36:G36 F37:G37 F38:G38 F39:G39 F40:G40 F19:G22 F23:G26 F41:G61">
       <formula1>"欧式距离,Haversine "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 L12 L13 L14 L15 L22 L2:L10 L16:L21 L23:L39 L40:L49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 L12 L13 L14 L15 L16 L23 L2:L10 L17:L22 L24:L40 L41:L50">
       <formula1>"读入点则计算参数,调用incdbscan才计算参数,固定参数"</formula1>
     </dataValidation>
   </dataValidations>
